--- a/testdata/Data.xlsx
+++ b/testdata/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenk\eclipse-workspace\seleniumgrid\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757633E9-EE46-4B52-AC93-35B7A2099DD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70852318-06DE-4B2B-86B2-D4B508634279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" activeTab="1" xr2:uid="{1859018A-490C-4A6C-965E-1065DF301B43}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Tricentis Vehicle Insurance</t>
   </si>
@@ -91,10 +91,13 @@
     <t>pass</t>
   </si>
   <si>
-    <t>user1@gmail.com</t>
-  </si>
-  <si>
-    <t>pass1</t>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>visual_user</t>
   </si>
 </sst>
 </file>
@@ -620,10 +623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA42E9A0-BF2D-41AA-834D-70798081A225}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,10 +647,15 @@
         <v>22</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B8EB3C53-E73A-4408-A4DC-0E8797D23DAE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>